--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proposals\Catering Website Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E9B0B8-864F-4234-8A46-B956F1958314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506423CC-94F7-4245-91EE-76D497198642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6924" yWindow="5976" windowWidth="13764" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="13764" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
     <t>Dessert</t>
   </si>
   <si>
-    <t>D:\Proposals\Catering Website Proposal\images\chickenBiriyani.jpg</t>
-  </si>
-  <si>
-    <t>D:\Proposals\Catering Website Proposal\images\PannerButterMasala.jpg</t>
-  </si>
-  <si>
-    <t>D:\Proposals\Catering Website Proposal\images\GulabJamun.jpg</t>
+    <t>images/chickenBiriyani.jpg</t>
+  </si>
+  <si>
+    <t>images/PannerButterMasala.jpg</t>
+  </si>
+  <si>
+    <t>images/GulabJamun.jpg</t>
   </si>
 </sst>
 </file>
